--- a/data/Subset1_WithDialogActs/Ladder problem 2_Grade 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ladder problem 2_Grade 7.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3207,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3245,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4119,12 +4119,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4157,12 +4157,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4575,12 +4575,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4613,12 +4613,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4841,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5449,12 +5449,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
